--- a/biology/Histoire de la zoologie et de la botanique/Anastasio_Guzmán/Anastasio_Guzmán.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Anastasio_Guzmán/Anastasio_Guzmán.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anastasio_Guzm%C3%A1n</t>
+          <t>Anastasio_Guzmán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anastasio Guzmán (Séville? 17??- Los Llanganates 1807) fut un pharmacien et naturaliste espagnol.
 De son activité en terre d'Espagne, on n'a aucune information sûre, en revanche on trouve trace (source Estrella, 1988) de son voyage d'étude en Amérique du Sud.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anastasio_Guzm%C3%A1n</t>
+          <t>Anastasio_Guzmán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Botanique
 Guzmania
